--- a/data.xlsx
+++ b/data.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhanb\Documents\GitHub\quadratic_curve_fitting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha\Documents\GitHub\quadratic_curve_fitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB989CE0-9276-4DC7-8664-DC2710F3288D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7538F5BC-51F5-4B78-8A2B-C681D31483F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="solution" sheetId="2" r:id="rId2"/>
+    <sheet name="analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">solution!$I$2:$I$20,solution!$K$2:$K$4</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">solution!$I$3:$I$21,solution!$P$3:$P$5</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">solution!$I$2:$I$20</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">solution!$I$2:$I$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">solution!$I$3:$I$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">solution!$I$3:$I$21</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
@@ -33,13 +34,13 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">solution!$I$21</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">solution!$I$22</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">solution!$G$2:$G$20</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">solution!$H$2:$H$20</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">solution!$G$3:$G$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">solution!$H$3:$H$21</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>x</t>
   </si>
@@ -104,6 +105,42 @@
   <si>
     <t>phi</t>
   </si>
+  <si>
+    <t>y_hat"</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Gurobi</t>
+  </si>
+  <si>
+    <t>Y_hat</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Correlation coeff</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Predicted Y</t>
+  </si>
+  <si>
+    <t>Actual Y</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +182,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -331,11 +374,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +503,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +605,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>solution!$B$1</c:f>
+              <c:f>solution!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -468,7 +640,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>solution!$A$2:$A$20</c:f>
+              <c:f>solution!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -534,7 +706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>solution!$B$2:$B$20</c:f>
+              <c:f>solution!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -637,7 +809,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>solution!$A$2:$A$20</c:f>
+              <c:f>solution!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -703,7 +875,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>solution!$E$2:$E$20</c:f>
+              <c:f>solution!$E$3:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -989,7 +1161,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>solution!$B$1</c:f>
+              <c:f>solution!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1073,9 +1245,23 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>solution!$A$2:$A$20</c:f>
+              <c:f>solution!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1141,7 +1327,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>solution!$B$2:$B$20</c:f>
+              <c:f>solution!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1371,6 +1557,775 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Actual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Y &amp; </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Predicted Y vs X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EA9-4ADB-8407-F30B59AC4014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>analysis!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>analysis!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.98235294117647043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.138039215686274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3105882352941181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.663670588235294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.929411764705883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1694117647058828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.426274509803922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9905882352941182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2980392156862739</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6223529411764699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9635294117647062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.696470588235294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1686117647058829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.922352941176471</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3647058823529417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EA9-4ADB-8407-F30B59AC4014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1289621136"/>
+        <c:axId val="1289619056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1289621136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289619056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1289619056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289621136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1451,6 +2406,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2483,19 +3478,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2523,15 +4034,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2552,6 +4063,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F669508-65D8-47B3-AD75-1BBE258D9222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2825,7 +4377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2998,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF304B-B697-44E5-A4BF-D43775735187}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3009,728 +4561,1665 @@
     <col min="1" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="J2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <f>A2*A2</f>
+      <c r="C3" s="2">
+        <f>A3*A3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <f>A2</f>
+      <c r="D3" s="2">
+        <f>A3</f>
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <f>$K$2*C2+$K$3*D2+$K$4</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E21" si="0">$P$3*C3+$P$4*D3+$P$5</f>
         <v>0.98235294006541485</v>
       </c>
-      <c r="F2" s="2">
-        <f>B2</f>
+      <c r="F3" s="2">
+        <f>B3</f>
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <f>E2-F2</f>
+      <c r="G3" s="5">
+        <f>E3-F3</f>
         <v>-1.7647059934585152E-2</v>
       </c>
-      <c r="H2" s="17">
-        <f>F2-E2</f>
+      <c r="H3" s="17">
+        <f>F3-E3</f>
         <v>1.7647059934585152E-2</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I3" s="13">
         <v>1.7647059934585041E-2</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J3" s="20">
+        <f>C3*$Q$3+D3*$Q$4+$Q$5</f>
+        <v>1.1035999999999999</v>
+      </c>
+      <c r="K3" s="20">
+        <f>ABS(J3-B3)</f>
+        <v>0.10359999999999991</v>
+      </c>
+      <c r="L3">
+        <v>0.98235294117647043</v>
+      </c>
+      <c r="M3">
+        <f>ABS(L3-F3)</f>
+        <v>1.7647058823529571E-2</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="P3" s="4">
         <v>3.3725489870656308E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="Q3" s="20">
+        <v>4.58E-2</v>
+      </c>
+      <c r="R3">
+        <v>3.3725490196078407E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>0.5</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B4" s="17">
         <v>0.9</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C20" si="0">A3*A3</f>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C21" si="1">A4*A4</f>
         <v>0.25</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D20" si="1">A3</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D21" si="2">A4</f>
         <v>0.5</v>
       </c>
-      <c r="E3" s="2">
-        <f>$K$2*C3+$K$3*D3+$K$4</f>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
         <v>1.1380392152835894</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F20" si="2">B3</f>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F21" si="3">B4</f>
         <v>0.9</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G20" si="3">E3-F3</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G21" si="4">E4-F4</f>
         <v>0.2380392152835894</v>
       </c>
-      <c r="H3" s="17">
-        <f t="shared" ref="H3:H20" si="4">F3-E3</f>
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H21" si="5">F4-E4</f>
         <v>-0.2380392152835894</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I4" s="13">
         <v>0.23803921528358962</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J4" s="20">
+        <f t="shared" ref="J4:J21" si="6">C4*$Q$3+D4*$Q$4+$Q$5</f>
+        <v>1.1990499999999999</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" ref="K4:K21" si="7">ABS(J4-B4)</f>
+        <v>0.29904999999999993</v>
+      </c>
+      <c r="L4">
+        <v>1.138039215686274</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M21" si="8">ABS(L4-F4)</f>
+        <v>0.23803921568627395</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="P4" s="6">
         <v>0.29450980550102107</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="Q4" s="20">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.29450980392156878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B5" s="17">
         <v>0.7</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <f>$K$2*C4+$K$3*D4+$K$4</f>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
         <v>1.3105882354370921</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="3"/>
+      <c r="G5" s="5">
+        <f t="shared" si="4"/>
         <v>0.61058823543709217</v>
       </c>
-      <c r="H4" s="17">
-        <f t="shared" si="4"/>
+      <c r="H5" s="17">
+        <f t="shared" si="5"/>
         <v>-0.61058823543709217</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I5" s="13">
         <v>0.61058823543709251</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J5" s="20">
+        <f t="shared" si="6"/>
+        <v>1.3173999999999999</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="7"/>
+        <v>0.61739999999999995</v>
+      </c>
+      <c r="L5">
+        <v>1.3105882352941181</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>0.6105882352941181</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="8">
+      <c r="P5" s="8">
         <v>0.98235294006541485</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="Q5" s="20">
+        <v>1.1035999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.98235294117647043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B6" s="17">
         <v>1.5</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="2">
-        <f>$K$2*C5+$K$3*D5+$K$4</f>
-        <v>1.5000000005259231</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5000000005259231</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
         <v>5.2592308286136813E-10</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H6" s="17">
+        <f t="shared" si="5"/>
+        <v>-5.2592308286136813E-10</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="6"/>
+        <v>1.45865</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="7"/>
+        <v>4.1349999999999998E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.61</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6636705889504242</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="4"/>
-        <v>-5.2592308286136813E-10</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="B6" s="17">
+        <v>-0.33632941104957581</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="5"/>
+        <v>0.33632941104957581</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.33632941584284237</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="6"/>
+        <v>1.5881379999999998</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="7"/>
+        <v>0.41186200000000017</v>
+      </c>
+      <c r="L7">
+        <v>1.663670588235294</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>0.33632941176470599</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9294117655095695</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.47058823449043041</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="5"/>
+        <v>0.47058823449043041</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.47058825223988104</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="6"/>
+        <v>1.80985</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.59014999999999995</v>
+      </c>
+      <c r="L8">
+        <v>1.929411764705883</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>0.47058823529411686</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.169411765404385</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0305882345956152</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0305882345956152</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1.0305882345956148</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="6"/>
+        <v>2.0198</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="7"/>
+        <v>1.1802000000000001</v>
+      </c>
+      <c r="L9">
+        <v>2.1694117647058828</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>1.0305882352941174</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>3.61</v>
-      </c>
-      <c r="D6" s="2">
+        <v>2.4262745102345282</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.42627451023452823</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.42627451023452823</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.4262745102345285</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="6"/>
+        <v>2.25265</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="7"/>
+        <v>0.25265000000000004</v>
+      </c>
+      <c r="L10">
+        <v>2.426274509803922</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>0.42627450980392201</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="E6" s="2">
-        <f>$K$2*C6+$K$3*D6+$K$4</f>
-        <v>1.6636705889504242</v>
-      </c>
-      <c r="F6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>-0.33632941104957581</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="4"/>
-        <v>0.33632941104957581</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.33632941584284237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="B7" s="17">
-        <v>2.4</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="E7" s="2">
-        <f>$K$2*C7+$K$3*D7+$K$4</f>
-        <v>1.9294117655095695</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.47058823449043041</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="4"/>
-        <v>0.47058823449043041</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.47058825223988104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17">
-        <v>3.2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
-        <f>$K$2*C8+$K$3*D8+$K$4</f>
-        <v>2.169411765404385</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.0305882345956152</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="4"/>
-        <v>1.0305882345956152</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1.0305882345956148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="B9" s="17">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="E9" s="2">
-        <f>$K$2*C9+$K$3*D9+$K$4</f>
-        <v>2.4262745102345282</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.42627451023452823</v>
-      </c>
-      <c r="H9" s="17">
-        <f t="shared" si="4"/>
-        <v>-0.42627451023452823</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0.4262745102345285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17">
         <v>2.7</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <f>$K$2*C10+$K$3*D10+$K$4</f>
-        <v>2.7</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G11" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I10" s="13">
+      <c r="H11" s="17">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="6"/>
+        <v>2.5084</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="7"/>
+        <v>0.19160000000000021</v>
+      </c>
+      <c r="L11">
+        <v>2.7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>4.5</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B12" s="17">
         <v>3.5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="D11" s="2">
+        <v>2.9905882347007999</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.50941176529920007</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="5"/>
+        <v>0.50941176529920007</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.50941179584664131</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="6"/>
+        <v>2.7870499999999998</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="7"/>
+        <v>0.71295000000000019</v>
+      </c>
+      <c r="L12">
+        <v>2.9905882352941182</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>0.50941176470588179</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="E11" s="2">
-        <f>$K$2*C11+$K$3*D11+$K$4</f>
-        <v>2.9905882347007999</v>
-      </c>
-      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2980392143369279</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>-0.50941176529920007</v>
-      </c>
-      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="4"/>
-        <v>0.50941176529920007</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.50941179584664131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+        <v>2.2980392143369279</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.2980392143369279</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2.2980392143369284</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="6"/>
+        <v>3.0886</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="7"/>
+        <v>2.0886</v>
+      </c>
+      <c r="L13">
+        <v>3.2980392156862739</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>2.2980392156862739</v>
+      </c>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="B14" s="17">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>30.25</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
+        <v>3.6223529389083842</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.37764706109161583</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.37764706109161583</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.37764706109161594</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="6"/>
+        <v>3.4130500000000001</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="7"/>
+        <v>0.58694999999999986</v>
+      </c>
+      <c r="L14">
+        <v>3.6223529411764699</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>0.37764705882353011</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <f>$K$2*C12+$K$3*D12+$K$4</f>
-        <v>3.2980392143369279</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2980392143369279</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="4"/>
-        <v>-2.2980392143369279</v>
-      </c>
-      <c r="I12" s="13">
-        <v>2.2980392143369284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="B13" s="17">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>30.25</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="E13" s="2">
-        <f>$K$2*C13+$K$3*D13+$K$4</f>
-        <v>3.6223529389083842</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.37764706109161583</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="4"/>
-        <v>0.37764706109161583</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.37764706109161594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17">
-        <v>3.6</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <f>$K$2*C14+$K$3*D14+$K$4</f>
-        <v>3.9635294084151682</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.36352940841516812</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="4"/>
-        <v>-0.36352940841516812</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.36352931848990988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>6.6</v>
-      </c>
-      <c r="B15" s="17">
-        <v>2.7</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>43.559999999999995</v>
-      </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="E15" s="2">
-        <f>$K$2*C15+$K$3*D15+$K$4</f>
-        <v>4.3951999951379417</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6951999951379415</v>
-      </c>
-      <c r="H15" s="17">
-        <f t="shared" si="4"/>
-        <v>-1.6951999951379415</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1.6952000147534427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>7</v>
-      </c>
-      <c r="B16" s="17">
-        <v>5.7</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E16" s="2">
-        <f>$K$2*C16+$K$3*D16+$K$4</f>
-        <v>4.6964705822347215</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.0035294177652787</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="4"/>
-        <v>1.0035294177652787</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1.0035294271999045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>7.6</v>
-      </c>
-      <c r="B17" s="17">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>57.76</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="E17" s="2">
-        <f>$K$2*C17+$K$3*D17+$K$4</f>
-        <v>5.1686117568022834</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="3"/>
-        <v>0.56861175680228371</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="4"/>
-        <v>-0.56861175680228371</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0.56861177240718075</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="B18" s="17">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>72.25</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="E18" s="2">
-        <f>$K$2*C18+$K$3*D18+$K$4</f>
-        <v>5.9223529299790121</v>
-      </c>
-      <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9635294084151682</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.36352940841516812</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.36352940841516812</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.36352931848990988</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="6"/>
+        <v>3.7603999999999997</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="7"/>
+        <v>0.16039999999999965</v>
+      </c>
+      <c r="L15">
+        <v>3.9635294117647062</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>0.3635294117647061</v>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>43.559999999999995</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3951999951379417</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6951999951379415</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="5"/>
+        <v>-1.6951999951379415</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1.6952000147534427</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="6"/>
+        <v>4.2074479999999994</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="7"/>
+        <v>1.5074479999999992</v>
+      </c>
+      <c r="L16">
+        <v>4.3952</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>1.6951999999999998</v>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17">
+        <v>5.7</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6964705822347215</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0035294177652787</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0035294177652787</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1.0035294271999045</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="6"/>
+        <v>4.5238000000000005</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="7"/>
+        <v>1.1761999999999997</v>
+      </c>
+      <c r="L17">
+        <v>4.696470588235294</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>1.0035294117647062</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="B18" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>57.76</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1686117568022834</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
       <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.56861175680228371</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.56861175680228371</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.56861177240718075</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="6"/>
+        <v>5.0258079999999996</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="7"/>
+        <v>0.42580799999999996</v>
+      </c>
+      <c r="L18">
+        <v>5.1686117647058829</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>0.56861176470588326</v>
+      </c>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="B19" s="17">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>72.25</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9223529299790121</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="4"/>
         <v>-7.7647070020987918E-2</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H19" s="17">
+        <f t="shared" si="5"/>
+        <v>7.7647070020987918E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>7.7647209619940621E-2</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="6"/>
+        <v>5.8406500000000001</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="7"/>
+        <v>0.15934999999999988</v>
+      </c>
+      <c r="L19">
+        <v>5.922352941176471</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>7.7647058823528958E-2</v>
+      </c>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>9</v>
+      </c>
+      <c r="B20" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3647058690977651</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="4"/>
-        <v>7.7647070020987918E-2</v>
-      </c>
-      <c r="I18" s="13">
-        <v>7.7647209619940621E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+        <v>-0.43529413090223468</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="5"/>
+        <v>0.43529413090223468</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.43529428131453884</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="6"/>
+        <v>6.3254000000000001</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="7"/>
+        <v>0.47459999999999969</v>
+      </c>
+      <c r="L20">
+        <v>6.3647058823529417</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>0.43529411764705817</v>
+      </c>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="18">
+        <v>7.3</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.299999982141256</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>7.3</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.7858743817100731E-8</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="5"/>
+        <v>1.7858743817100731E-8</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="6"/>
+        <v>7.3635999999999999</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="7"/>
+        <v>6.3600000000000101E-2</v>
+      </c>
+      <c r="L21">
+        <v>7.3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3">
+        <f>SUM(I3:I21)</f>
+        <v>10.458965018628236</v>
+      </c>
+      <c r="J22" s="21">
+        <f>SUM(J3:J21)</f>
+        <v>61.593343999999995</v>
+      </c>
+      <c r="K22" s="21">
+        <f>SUM(K3:K21)</f>
+        <v>11.043768</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21">
+        <f>SUM(M3:M21)</f>
+        <v>10.458964705882352</v>
+      </c>
+      <c r="N22" s="21"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <f>CORREL(B3:B21,J3:J21)</f>
+        <v>0.91755019033495666</v>
+      </c>
+      <c r="M23">
+        <f>CORREL(F3:F21,L3:L21)</f>
+        <v>0.91613429815701009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <f>K23*K23</f>
+        <v>0.84189835178371519</v>
+      </c>
+      <c r="M24">
+        <f>M23*M23</f>
+        <v>0.8393020522596375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620260B0-5910-4BDC-BF5B-0F3E650CBBDE}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="5.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1.1035999999999999</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.10359999999999991</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.98235294117647043</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1.7647058823529571E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.1990499999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.29904999999999993</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.138039215686274</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.23803921568627395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.3173999999999999</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.61739999999999995</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.3105882352941181</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.6105882352941181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.45865</v>
+      </c>
+      <c r="E6" s="17">
+        <v>4.1349999999999998E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1.9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.5881379999999998</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.41186200000000017</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.663670588235294</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.33632941176470599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.80985</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.59014999999999995</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.929411764705883</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.47058823529411686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="34">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0198</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.1802000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.1694117647058828</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.0305882352941174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.25265</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.25265000000000004</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.426274509803922</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.42627450980392201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B11" s="27">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.5084</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.19160000000000021</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.7870499999999998</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.71295000000000019</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.9905882352941182</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.50941176470588179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="34">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.0886</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2.0886</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3.2980392156862739</v>
+      </c>
+      <c r="G13" s="17">
+        <v>2.2980392156862739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="34">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27">
+        <v>5.5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3.4130500000000001</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.58694999999999986</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.6223529411764699</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.37764705882353011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.7603999999999997</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.16039999999999965</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3.9635294117647062</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.3635294117647061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="34">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27">
+        <v>6.6</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.2074479999999994</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1.5074479999999992</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.3952</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1.6951999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="27">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4.5238000000000005</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1.1761999999999997</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.696470588235294</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1.0035294117647062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="34">
+        <v>16</v>
+      </c>
+      <c r="B18" s="27">
+        <v>7.6</v>
+      </c>
+      <c r="C18" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5.0258079999999996</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.42580799999999996</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5.1686117647058829</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.56861176470588326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.8406500000000001</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.15934999999999988</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.922352941176471</v>
+      </c>
+      <c r="G19" s="17">
+        <v>7.7647058823528958E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
         <v>6.8</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E19" s="2">
-        <f>$K$2*C19+$K$3*D19+$K$4</f>
-        <v>6.3647058690977651</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.43529413090223468</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="4"/>
-        <v>0.43529413090223468</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.43529428131453884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="D20" s="5">
+        <v>6.3254000000000001</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.47459999999999969</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6.3647058823529417</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.43529411764705817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28">
         <v>10</v>
       </c>
-      <c r="B20" s="18">
+      <c r="C21" s="11">
         <v>7.3</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E20" s="2">
-        <f>$K$2*C20+$K$3*D20+$K$4</f>
-        <v>7.299999982141256</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
+      <c r="D21" s="7">
+        <v>7.3635999999999999</v>
+      </c>
+      <c r="E21" s="18">
+        <v>6.3600000000000101E-2</v>
+      </c>
+      <c r="F21" s="7">
         <v>7.3</v>
       </c>
-      <c r="G20" s="7">
-        <f t="shared" si="3"/>
-        <v>-1.7858743817100731E-8</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="4"/>
-        <v>1.7858743817100731E-8</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="G21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="3">
-        <f>SUM(I2:I20)</f>
-        <v>10.458965018628236</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="27"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="20">
+        <f>SUM(E3:E21)</f>
+        <v>11.043768</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="20">
+        <f>SUM(G3:G21)</f>
+        <v>10.458964705882352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="27"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <f>CORREL(C3:C21,D3:D21)</f>
+        <v>0.91755019033495666</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10">
+        <f>CORREL(C3:C21,F3:F21)</f>
+        <v>0.91613429815701009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="27"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="25">
+        <f>E23^2</f>
+        <v>0.84189835178371519</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="25">
+        <f>G23^2</f>
+        <v>0.8393020522596375</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
